--- a/biology/Botanique/Comtesse_de_Ségur_(rose)/Comtesse_de_Ségur_(rose).xlsx
+++ b/biology/Botanique/Comtesse_de_Ségur_(rose)/Comtesse_de_Ségur_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comtesse_de_S%C3%A9gur_(rose)</t>
+          <t>Comtesse_de_Ségur_(rose)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Comtesse de Ségur' est un cultivar de rosier obtenu par la maison Delbard vers 1992[1] et mis au commerce en 1994[2]. Elle rend hommage à la comtesse de Ségur, née Rostopchine (1799-1874), célèbre auteur de littérature enfantine.
+'Comtesse de Ségur' est un cultivar de rosier obtenu par la maison Delbard vers 1992 et mis au commerce en 1994. Elle rend hommage à la comtesse de Ségur, née Rostopchine (1799-1874), célèbre auteur de littérature enfantine.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comtesse_de_S%C3%A9gur_(rose)</t>
+          <t>Comtesse_de_Ségur_(rose)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier floribunda présente de grosses fleurs à cent pétales groupées par trois ou cinq[3], d'un rose tendre, au léger parfum abricoté. Elles ressemblent à de belles pivoines lorsqu'elles sont épanouies. Son buisson au port érigé possède un feuillage abondant et vert foncé semi-brillant[4] sur des rameaux épineux. Il peut s'élever à 100 cm.
-La floraison de 'Comtesse de Ségur' est remontante et généreuse jusqu'aux premières gelées. Ce cultivar a besoin d'une situation ensoleillée. Il résiste à des hivers à -20°[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier floribunda présente de grosses fleurs à cent pétales groupées par trois ou cinq, d'un rose tendre, au léger parfum abricoté. Elles ressemblent à de belles pivoines lorsqu'elles sont épanouies. Son buisson au port érigé possède un feuillage abondant et vert foncé semi-brillant sur des rameaux épineux. Il peut s'élever à 100 cm.
+La floraison de 'Comtesse de Ségur' est remontante et généreuse jusqu'aux premières gelées. Ce cultivar a besoin d'une situation ensoleillée. Il résiste à des hivers à -20°.
 On peut l'admirer à la roseraie de Bagatelle. 
 'Comtesse de Ségur' est issue du croisement ('Zambra' x 'Orange Sensation') et ('Robin Hood' x 'Virgo').
 </t>
